--- a/ExperimentalResults/Result.xlsx
+++ b/ExperimentalResults/Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csflhe\Desktop\Security2026\匿名github提交\NeckPass\ExperimentalResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csflhe\Desktop\2026Security\匿名github提交\NeckPass\ExperimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73B831-1409-44D5-AC76-EAF7DF823940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE9B885-A3A9-4847-A9AF-0650D4958253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,10 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -785,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +790,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -819,9 +810,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>40</v>
@@ -829,7 +820,7 @@
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>0.92859999999999998</v>
       </c>
       <c r="E2" s="2">
@@ -839,9 +830,9 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>45</v>
@@ -849,20 +840,19 @@
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="2">
         <v>0.9355</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="2">
         <v>0.97860000000000003</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="2">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>48</v>
@@ -880,9 +870,9 @@
         <v>0.95730000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>14</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>51</v>
@@ -900,9 +890,9 @@
         <v>0.94989999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>39</v>
@@ -920,9 +910,9 @@
         <v>0.92330000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>21</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>56</v>
@@ -940,9 +930,9 @@
         <v>0.96640000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>17</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>54</v>
@@ -960,9 +950,9 @@
         <v>0.96340000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>4</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>41</v>
@@ -980,9 +970,9 @@
         <v>0.93340000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>7</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>44</v>
@@ -1000,9 +990,9 @@
         <v>0.9708</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>15</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>52</v>
@@ -1020,9 +1010,9 @@
         <v>0.96870000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>29</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>64</v>
@@ -1040,9 +1030,9 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>12</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>49</v>
@@ -1060,9 +1050,9 @@
         <v>0.93720000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>13</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>50</v>
@@ -1080,9 +1070,9 @@
         <v>0.95720000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>26</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>61</v>
@@ -1100,9 +1090,9 @@
         <v>0.98109999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>30</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>65</v>
@@ -1121,8 +1111,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>0</v>
+      <c r="A17" s="15">
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>37</v>
@@ -1141,8 +1131,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>6</v>
+      <c r="A18" s="15">
+        <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>43</v>
@@ -1161,8 +1151,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>27</v>
+      <c r="A19" s="15">
+        <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>62</v>
@@ -1181,8 +1171,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>9</v>
+      <c r="A20" s="15">
+        <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>46</v>
@@ -1201,8 +1191,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>16</v>
+      <c r="A21" s="15">
+        <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>53</v>
@@ -1221,8 +1211,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>24</v>
+      <c r="A22" s="15">
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>59</v>
@@ -1241,8 +1231,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>19</v>
+      <c r="A23" s="15">
+        <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>55</v>
@@ -1261,8 +1251,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>23</v>
+      <c r="A24" s="15">
+        <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>58</v>
@@ -1281,8 +1271,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>25</v>
+      <c r="A25" s="15">
+        <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>60</v>
@@ -1301,7 +1291,6 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1313,11 +1302,11 @@
         <v>0.96000416666666666</v>
       </c>
       <c r="E26" s="5">
-        <f>AVERAGE(E2:E25)</f>
+        <f t="shared" ref="E26:F26" si="0">AVERAGE(E2:E25)</f>
         <v>0.96695416666666656</v>
       </c>
       <c r="F26" s="5">
-        <f>AVERAGE(F2:F25)</f>
+        <f t="shared" si="0"/>
         <v>0.96347916666666666</v>
       </c>
     </row>
@@ -1332,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8677B0A9-A938-4ABA-8A93-EC2ADEE364A7}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1358,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="10">
@@ -1389,7 +1378,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="C3" s="10">
         <v>1</v>
       </c>
@@ -1407,7 +1396,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -1425,7 +1414,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="C5" s="10">
         <v>3</v>
       </c>
@@ -1443,7 +1432,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="C6" s="10">
         <v>4</v>
       </c>
@@ -1461,7 +1450,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="C7" s="10">
         <v>5</v>
       </c>
@@ -1479,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="C8" s="10">
         <v>6</v>
       </c>
@@ -1497,7 +1486,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>6</v>
@@ -1516,7 +1505,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1551,7 +1540,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="C12" s="10">
         <v>0</v>
       </c>
@@ -1584,7 +1573,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="C13" s="10">
         <v>1</v>
       </c>
@@ -1617,7 +1606,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -1650,7 +1639,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
         <v>6</v>
@@ -1681,7 +1670,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1716,7 +1705,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="C18" s="10">
         <v>0</v>
       </c>
@@ -1749,7 +1738,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="C19" s="10">
         <v>1</v>
       </c>
@@ -1782,7 +1771,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="C20" s="10">
         <v>2</v>
       </c>
@@ -1815,7 +1804,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="C21" s="10">
         <v>3</v>
       </c>
@@ -1848,7 +1837,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="C22" s="10">
         <v>4</v>
       </c>
@@ -1881,7 +1870,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="C23" s="10"/>
       <c r="D23" s="7" t="s">
         <v>6</v>
@@ -1912,7 +1901,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1947,7 +1936,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="C26" s="10">
         <v>0</v>
       </c>
@@ -1980,7 +1969,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="C27" s="10">
         <v>1</v>
       </c>
@@ -2013,7 +2002,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="C28" s="10">
         <v>2</v>
       </c>
@@ -2046,7 +2035,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="C29" s="10">
         <v>3</v>
       </c>
@@ -2079,7 +2068,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="C30" s="10">
         <v>4</v>
       </c>
@@ -2112,7 +2101,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="C31" s="10"/>
       <c r="D31" s="7" t="s">
         <v>6</v>
@@ -2142,8 +2131,8 @@
         <v>0.95230000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -2165,8 +2154,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
       <c r="C34" s="10">
         <v>0</v>
       </c>
@@ -2186,8 +2175,8 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
       <c r="C35" s="10">
         <v>1</v>
       </c>
@@ -2207,8 +2196,8 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
       <c r="C36" s="10">
         <v>2</v>
       </c>
@@ -2228,8 +2217,8 @@
         <v>0.96279999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="C37" s="10">
         <v>3</v>
       </c>
@@ -2249,8 +2238,8 @@
         <v>0.93440000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
       <c r="C38" s="10">
         <v>4</v>
       </c>
@@ -2270,8 +2259,8 @@
         <v>0.88790000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
       <c r="C39" s="10">
         <v>5</v>
       </c>
@@ -2291,8 +2280,8 @@
         <v>0.99039999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
       <c r="C40" s="10">
         <v>6</v>
       </c>
@@ -2312,8 +2301,8 @@
         <v>0.95909999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="C41" s="10">
         <v>7</v>
       </c>
@@ -2333,8 +2322,8 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
       <c r="C42" s="10">
         <v>8</v>
       </c>
@@ -2354,8 +2343,8 @@
         <v>0.95920000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="C43" s="10">
         <v>9</v>
       </c>
@@ -2375,8 +2364,8 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
       <c r="C44" s="10">
         <v>10</v>
       </c>
@@ -2396,8 +2385,8 @@
         <v>0.96109999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
         <v>6</v>
@@ -2415,8 +2404,8 @@
         <v>0.95840000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -2438,8 +2427,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
       <c r="C48" s="10">
         <v>0</v>
       </c>
@@ -2458,51 +2447,9 @@
       <c r="H48" s="2">
         <v>0.96130000000000004</v>
       </c>
-      <c r="J48" s="11">
-        <v>2</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="12">
-        <v>0.61360000000000003</v>
-      </c>
-      <c r="N48" s="12">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="O48" s="12">
-        <v>0.95240000000000002</v>
-      </c>
-      <c r="P48" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>1</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="S48" s="12">
-        <v>0.98080000000000001</v>
-      </c>
-      <c r="T48" s="12">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="U48" s="12">
-        <v>0.94640000000000002</v>
-      </c>
-      <c r="V48" s="12">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="W48" s="12">
-        <v>0.91810000000000003</v>
-      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="C49" s="10">
         <v>1</v>
       </c>
@@ -2523,7 +2470,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="C50" s="10">
         <v>2</v>
       </c>
@@ -2544,7 +2491,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="C51" s="10">
         <v>3</v>
       </c>
@@ -2565,7 +2512,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="C52" s="10">
         <v>4</v>
       </c>
@@ -2586,7 +2533,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="C53" s="10"/>
       <c r="D53" s="7" t="s">
         <v>6</v>
@@ -2605,7 +2552,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -2652,7 +2599,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="C56" s="11">
         <v>0</v>
       </c>
@@ -2697,7 +2644,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="C57" s="11">
         <v>1</v>
       </c>
@@ -2742,243 +2689,275 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="C58" s="11">
+        <v>2</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="I58" s="12">
+        <v>1</v>
+      </c>
+      <c r="J58" s="12">
+        <v>1</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0.91810000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="C59" s="11">
         <v>3</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="12">
+      <c r="E59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="12">
         <v>0.75509999999999999</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>0.9375</v>
       </c>
-      <c r="H58" s="12">
-        <v>1</v>
-      </c>
-      <c r="I58" s="12">
-        <v>1</v>
-      </c>
-      <c r="J58" s="12">
-        <v>1</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L58" s="12">
+      <c r="H59" s="12">
+        <v>1</v>
+      </c>
+      <c r="I59" s="12">
+        <v>1</v>
+      </c>
+      <c r="J59" s="12">
+        <v>1</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="12">
         <v>0.98119999999999996</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M59" s="12">
         <v>0.96230000000000004</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N59" s="12">
         <v>0.94340000000000002</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O59" s="12">
         <v>0.9244</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P59" s="12">
         <v>0.90529999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="C59" s="11">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="C60" s="11">
         <v>4</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="12">
+      <c r="E60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="12">
         <v>0.76319999999999999</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>0.94589999999999996</v>
       </c>
-      <c r="H59" s="12">
-        <v>1</v>
-      </c>
-      <c r="I59" s="12">
-        <v>1</v>
-      </c>
-      <c r="J59" s="12">
-        <v>1</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L59" s="12">
+      <c r="H60" s="12">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12">
+        <v>1</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="12">
         <v>0.99580000000000002</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M60" s="12">
         <v>0.99150000000000005</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N60" s="12">
         <v>0.98729999999999996</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O60" s="12">
         <v>0.98299999999999998</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P60" s="12">
         <v>0.97870000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="C60" s="11">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="C61" s="11">
         <v>5</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="12">
+      <c r="E61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="12">
         <v>0.86209999999999998</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>0.98250000000000004</v>
       </c>
-      <c r="H60" s="12">
-        <v>1</v>
-      </c>
-      <c r="I60" s="12">
-        <v>1</v>
-      </c>
-      <c r="J60" s="12">
-        <v>1</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="12">
+      <c r="H61" s="12">
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <v>1</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="12">
         <v>0.98939999999999995</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M61" s="12">
         <v>0.97870000000000001</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N61" s="12">
         <v>0.96789999999999998</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O61" s="12">
         <v>0.95720000000000005</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P61" s="12">
         <v>0.94850000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="C61" s="11">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="C62" s="11">
         <v>6</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="12">
+      <c r="E62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="12">
         <v>0.81310000000000004</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>0.96460000000000001</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H62" s="12">
         <v>0.98980000000000001</v>
       </c>
-      <c r="I61" s="12">
-        <v>1</v>
-      </c>
-      <c r="J61" s="12">
-        <v>1</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L61" s="12">
+      <c r="I62" s="12">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="12">
         <v>0.96579999999999999</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M62" s="12">
         <v>0.93359999999999999</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N62" s="12">
         <v>0.90129999999999999</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O62" s="12">
         <v>0.86880000000000002</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P62" s="12">
         <v>0.83840000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="13">
-        <f>AVERAGE(F56:F61)</f>
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="G62" s="13">
-        <f t="shared" ref="G62:J62" si="0">AVERAGE(G56:G61)</f>
-        <v>0.95524999999999993</v>
-      </c>
-      <c r="H62" s="13">
-        <f t="shared" si="0"/>
-        <v>0.99721666666666664</v>
-      </c>
-      <c r="I62" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J62" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L62" s="13">
-        <f t="shared" ref="L62" si="1">AVERAGE(L56:L61)</f>
-        <v>0.98621666666666663</v>
-      </c>
-      <c r="M62" s="13">
-        <f t="shared" ref="M62" si="2">AVERAGE(M56:M61)</f>
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="N62" s="13">
-        <f t="shared" ref="N62" si="3">AVERAGE(N56:N61)</f>
-        <v>0.95915000000000006</v>
-      </c>
-      <c r="O62" s="13">
-        <f t="shared" ref="O62" si="4">AVERAGE(O56:O61)</f>
-        <v>0.94555</v>
-      </c>
-      <c r="P62" s="13">
-        <f t="shared" ref="P62" si="5">AVERAGE(P56:P61)</f>
-        <v>0.93259999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="E63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="I63" s="13">
+        <v>1</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="M63" s="13">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="N63" s="12">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="O63" s="12">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="P63" s="13">
+        <v>0.93049999999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -2995,7 +2974,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="C66" s="11" t="s">
         <v>98</v>
       </c>
@@ -3010,7 +2989,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="16"/>
       <c r="C67" s="10" t="s">
         <v>97</v>
       </c>
@@ -3042,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F344B21-152A-4331-A9A2-242460FDBD68}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -3082,7 +3061,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="C2" s="10">
         <v>0</v>
       </c>
@@ -3103,7 +3082,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="C3" s="10">
         <v>1</v>
       </c>
@@ -3124,7 +3103,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -3145,7 +3124,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="C5" s="10">
         <v>3</v>
       </c>
@@ -3166,7 +3145,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="C6" s="10">
         <v>4</v>
       </c>
@@ -3187,7 +3166,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="C7" s="10">
         <v>5</v>
       </c>
@@ -3208,7 +3187,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="C8" s="10">
         <v>6</v>
       </c>
@@ -3229,7 +3208,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
@@ -3250,7 +3229,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -3269,7 +3248,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3292,7 +3271,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="C13" s="10">
         <v>0</v>
       </c>
@@ -3314,7 +3293,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="C14" s="10">
         <v>1</v>
       </c>
@@ -3336,7 +3315,7 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="C15" s="10">
         <v>2</v>
       </c>
@@ -3358,7 +3337,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="C16" s="10">
         <v>3</v>
       </c>
@@ -3399,7 +3378,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -3422,7 +3401,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="C20" s="10">
         <v>0</v>
       </c>
@@ -3443,7 +3422,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="C21" s="10">
         <v>1</v>
       </c>
@@ -3464,7 +3443,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="C22" s="10">
         <v>2</v>
       </c>
@@ -3485,10 +3464,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="G23" s="3">
+        <f>AVERAGE(G20:G22)</f>
+        <v>0.94610000000000005</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +3492,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="C25" s="10">
         <v>0</v>
       </c>
@@ -3530,7 +3513,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="C26" s="10">
         <v>1</v>
       </c>
@@ -3551,7 +3534,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="C27" s="10">
         <v>2</v>
       </c>
@@ -3569,6 +3552,12 @@
       </c>
       <c r="H27" s="2">
         <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <f>AVERAGE(G25:G27)</f>
+        <v>0.96286666666666665</v>
       </c>
     </row>
   </sheetData>
